--- a/biology/Botanique/Badiane_japonaise/Badiane_japonaise.xlsx
+++ b/biology/Botanique/Badiane_japonaise/Badiane_japonaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Illicium anisatum
 La badiane japonaise (Illicium anisatum), également appelée « anis étoilé japonais », faux badianier ou badianier du Japon et anciennement Illicium religiosum Sieb., est une espèce d'arbustes de la famille des Illiciacées, originaire de Corée du Sud et du Japon jusqu'à Taïwan.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste de quatre à cinq mètres de haut, à feuilles lancéolées, elliptiques, luisantes en dessus, vert pâle en dessous, à fleurs brillantes.
 Les fruits sont des follicules inégaux à bord supérieur ondulé.
@@ -545,7 +559,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Semblable à la badiane chinoise, elle est cependant toxique et donc non comestible.
 La badiane japonaise ressemble beaucoup à la badiane chinoise (Illicium verum), mais les fruits sont plus petits et l'odeur est moins prononcée ; celle-ci se rapprocherait plus de celle de la cardamome que de l'anis. Une fois séchés ou réduits en poudre, il est impossible de différencier visuellement les fruits de badiane japonaise de ceux de la badiane chinoise. Plusieurs cas d'intoxication à la suite d'une contamination de badiane chinoise par la badiane japonaise ont été recensés.
@@ -579,7 +595,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Japon, la badiane japonaise est brûlée comme encens. Elle y est appelée shikimi (シキミ?), origine du nom de l'acide shikimique.
 Bien que toxique et donc non utilisable en usage interne, la badiane japonaise est utilisée en médecine chinoise pour traiter certains problèmes de peau. Ses feuilles ont été utilisées comme poison de pêche. Les feuilles et les fruits ont également des propriétés raticides.
